--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235601.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231201.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 09:56:59</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 11:12:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231201.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234701.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 11:12:05</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 11:47:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234701.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235801.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 11:47:42</t>
+    <t>Informação extraída do SIGBM: 01/01/2023 - 11:58:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235801.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231602.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 01/01/2023 - 11:58:30</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 12:16:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231602.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233002.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 12:16:12</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 12:30:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233002.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234002.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 12:30:46</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 12:40:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234002.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234802.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 12:40:06</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 12:48:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234802.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235702.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 12:48:57</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 12:57:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235702.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231602.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 12:57:42</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 01:16:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231602.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233402.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 01:16:16</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 01:34:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233402.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234402.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 01:34:37</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 01:44:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234402.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235402.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 01:44:52</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 01:54:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235402.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230202.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 01:54:07</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 02:02:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230202.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232102.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 02:02:27</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 02:21:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232102.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233102.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 02:21:16</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 02:31:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233102.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233902.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 02:31:05</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 02:39:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233902.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234802.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 02:39:50</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 02:48:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234802.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235702.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 02:48:42</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 02:57:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235702.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231702.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 02:57:59</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 03:17:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231702.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233502.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 03:17:07</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 03:35:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233502.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234602.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 03:35:10</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 03:46:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234602.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235502.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 03:46:05</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 03:55:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235502.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230302.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 03:55:03</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 04:03:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230302.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232102.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 04:03:30</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 04:21:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232102.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232902.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 04:21:06</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 04:29:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232902.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233802.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 04:29:59</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 04:38:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233802.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234702.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 04:38:44</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 04:47:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234702.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235602.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 04:47:23</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 04:56:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235602.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231402.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 04:56:10</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 05:14:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231402.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233302.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 05:14:33</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 05:33:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233302.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234402.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 05:33:37</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 05:44:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234402.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235302.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 05:44:19</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 05:53:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235302.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230202.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 05:53:14</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 06:02:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230202.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232102.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 06:02:27</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 06:21:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232102.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233002.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 06:21:44</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 06:30:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233002.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234002.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 06:30:52</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 06:40:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234002.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234902.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 06:40:33</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 06:49:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234902.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235702.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 06:49:22</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 06:57:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235702.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231402.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 06:57:35</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 07:14:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231402.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233102.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 07:14:45</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 07:31:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233102.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234002.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 07:31:30</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 07:40:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234002.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235002.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 07:40:51</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 07:50:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235002.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235902.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 07:50:26</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 07:59:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235902.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231302.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 07:59:00</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 08:13:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231302.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232402.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 08:13:37</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 08:24:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232402.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233302.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 08:24:38</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 08:33:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233302.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234202.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 08:33:53</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 08:42:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234202.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235002.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 08:42:06</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 08:50:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235002.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230002.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 08:50:55</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 09:00:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230002.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233102.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 09:00:13</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 09:31:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233102.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230002.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 09:31:29</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 10:00:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230002.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232402.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 10:00:28</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 10:24:23</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -5363,7 +5363,7 @@
     <t>AL</t>
   </si>
   <si>
-    <t>8.344.224,94</t>
+    <t>8.169.096,91</t>
   </si>
   <si>
     <t>Barragem Sul</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232402.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233502.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 10:24:23</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 10:35:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233502.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234302.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 10:35:14</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 10:43:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234302.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235302.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 10:43:59</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 10:53:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235302.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230102.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 10:53:08</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 11:01:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230102.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231902.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 11:01:48</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 11:19:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231902.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233002.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 11:19:42</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 11:30:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233002.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233802.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 11:30:31</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 11:38:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233802.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234802.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 11:38:54</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 11:48:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234802.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235702.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 11:48:18</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 11:57:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235702.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231202.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 11:57:24</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 12:12:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231202.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232802.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 12:12:13</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 12:28:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232802.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233702.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 12:28:48</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 12:37:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233702.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234602.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 12:37:33</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 12:46:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234602.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235502.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 12:46:32</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 12:55:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235502.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231002.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 12:55:32</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 01:10:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231002.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233602.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 01:10:49</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 01:36:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233602.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235002.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 01:36:06</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 01:50:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235002.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235802.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 01:50:28</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 01:58:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235802.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231302.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 01:58:25</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 02:13:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231302.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232702.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 02:13:55</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 02:27:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232702.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233602.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 02:27:28</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 02:36:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233602.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234502.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 02:36:44</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 02:45:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234502.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235402.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 02:45:37</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 02:54:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235402.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230902.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 02:54:47</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 03:09:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230902.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232902.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 03:09:52</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 03:29:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232902.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234102.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 03:29:50</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 03:41:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234102.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235002.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 03:41:21</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 03:50:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235002.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235802.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 03:50:11</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 03:58:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235802.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231202.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 03:58:30</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 04:12:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231202.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232202.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 04:12:58</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 04:22:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232202.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233102.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 04:22:01</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 04:31:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233102.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234002.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 04:31:05</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 04:40:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234002.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234902.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 04:40:03</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 04:49:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234902.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235702.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 04:49:07</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 04:57:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235702.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231402.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 04:57:31</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 05:14:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231402.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232802.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 05:14:03</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 05:28:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232802.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233702.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 05:28:18</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 05:37:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233702.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234602.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 05:37:44</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 05:46:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234602.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235502.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 05:46:24</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 05:55:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235502.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230702.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 05:55:23</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 06:07:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230702.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232202.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 06:07:22</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 06:22:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232202.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233002.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 06:22:28</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 06:30:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233002.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233902.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 06:30:34</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 06:39:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233902.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234802.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 06:39:55</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 06:48:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234802.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235702.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 06:48:14</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 06:57:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235702.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231102.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 06:57:39</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 07:11:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231102.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232802.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 07:11:59</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 07:28:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232802.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233602.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 07:28:05</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 07:36:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233602.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234502.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 07:36:49</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 07:45:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234502.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235402.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 07:45:29</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 07:54:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235402.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230402.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 07:54:54</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 08:04:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230402.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232302.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 08:04:32</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 08:23:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232302.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233202.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 08:23:24</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 08:32:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233202.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234002.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 08:32:21</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 08:40:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234002.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234902.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 08:40:43</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 08:49:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-02.xlsx
+++ b/sigbm_download_2023-01-02.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234902.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235802.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 08:49:44</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 08:58:39</t>
   </si>
   <si>
     <t>ID Barragem</t>
